--- a/static/data/ticker_isin_file.xlsx
+++ b/static/data/ticker_isin_file.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirko\Desktop\financial_markets_academy\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E43AADF-2E14-4DB1-8DF8-D7121B899F4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793C6124-45C7-4840-A747-02CBD9DB2486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1335" windowWidth="23985" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="American" sheetId="2" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -31246,7 +31247,7 @@
   <dimension ref="A1:C5144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A13" sqref="A13:C5144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87841,4 +87842,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D3F5BF-A5A8-4E66-AD28-83EE8130D2DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>